--- a/Code/Results/Cases/Case_0_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_224/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.501321776900525</v>
+        <v>10.31203174127577</v>
       </c>
       <c r="D2">
-        <v>4.800385303192103</v>
+        <v>5.463009773692793</v>
       </c>
       <c r="E2">
-        <v>10.4994890905596</v>
+        <v>12.79773567022786</v>
       </c>
       <c r="F2">
-        <v>17.13019615481607</v>
+        <v>26.01856027458608</v>
       </c>
       <c r="G2">
-        <v>2.078743126581916</v>
+        <v>3.647021604413712</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.98364846159939</v>
+        <v>24.3111534030711</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.71461777750145</v>
+        <v>17.28693944694734</v>
       </c>
       <c r="L2">
-        <v>6.241552466151094</v>
+        <v>9.479816495870692</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.59251009378241</v>
+        <v>23.38507774341043</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.004393186906558</v>
+        <v>10.2080312633025</v>
       </c>
       <c r="D3">
-        <v>4.665191827988464</v>
+        <v>5.424143358963288</v>
       </c>
       <c r="E3">
-        <v>10.04069296458254</v>
+        <v>12.73499116086338</v>
       </c>
       <c r="F3">
-        <v>16.91682665479918</v>
+        <v>26.14777802520361</v>
       </c>
       <c r="G3">
-        <v>2.084984791957318</v>
+        <v>3.649320326077146</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.92568962442186</v>
+        <v>24.43213820781051</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.10090478654379</v>
+        <v>16.59375816764182</v>
       </c>
       <c r="L3">
-        <v>6.108395824243</v>
+        <v>9.483067731132607</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.71133173120277</v>
+        <v>23.53721094122345</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.688988096864392</v>
+        <v>10.14540452348679</v>
       </c>
       <c r="D4">
-        <v>4.580459441463788</v>
+        <v>5.400166542550513</v>
       </c>
       <c r="E4">
-        <v>9.754556338509335</v>
+        <v>12.69899386938139</v>
       </c>
       <c r="F4">
-        <v>16.81554925755159</v>
+        <v>26.23665486265639</v>
       </c>
       <c r="G4">
-        <v>2.088922837154815</v>
+        <v>3.650804816539363</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.91307330284011</v>
+        <v>24.51374199262227</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.05258561212072</v>
+        <v>16.15282596942402</v>
       </c>
       <c r="L4">
-        <v>6.029131219571076</v>
+        <v>9.486719456199854</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.80854750846759</v>
+        <v>23.6378329183127</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.55800708179247</v>
+        <v>10.12021769669625</v>
       </c>
       <c r="D5">
-        <v>4.545529003521363</v>
+        <v>5.390372603539433</v>
       </c>
       <c r="E5">
-        <v>9.636997167359901</v>
+        <v>12.684971704111</v>
       </c>
       <c r="F5">
-        <v>16.7814889979226</v>
+        <v>26.27525596571101</v>
       </c>
       <c r="G5">
-        <v>2.090555059073693</v>
+        <v>3.651428191453516</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.91343747424957</v>
+        <v>24.5488283941319</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.61088104601691</v>
+        <v>15.9695155907496</v>
       </c>
       <c r="L5">
-        <v>5.997479606315164</v>
+        <v>9.488624130701993</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.85386596681971</v>
+        <v>23.68064379950988</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.536114273651696</v>
+        <v>10.11605633310113</v>
       </c>
       <c r="D6">
-        <v>4.539705585954478</v>
+        <v>5.388745076556969</v>
       </c>
       <c r="E6">
-        <v>9.617423861713752</v>
+        <v>12.68268272599779</v>
       </c>
       <c r="F6">
-        <v>16.77626042991858</v>
+        <v>26.28180913598645</v>
       </c>
       <c r="G6">
-        <v>2.090827770043535</v>
+        <v>3.651532817452881</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.91382233957595</v>
+        <v>24.55476488525705</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.53665904229594</v>
+        <v>15.93886509684958</v>
       </c>
       <c r="L6">
-        <v>5.99226373173392</v>
+        <v>9.48896556564323</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.86172407128588</v>
+        <v>23.68786143178405</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.687231364620358</v>
+        <v>10.14506346015751</v>
       </c>
       <c r="D7">
-        <v>4.579989937784449</v>
+        <v>5.400034545203505</v>
       </c>
       <c r="E7">
-        <v>9.752974540475831</v>
+        <v>12.6988021274922</v>
       </c>
       <c r="F7">
-        <v>16.8150610872567</v>
+        <v>26.2371658217947</v>
       </c>
       <c r="G7">
-        <v>2.088944737658823</v>
+        <v>3.650813148877621</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.91305628847496</v>
+        <v>24.51420777245874</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.04668741962859</v>
+        <v>16.15036814965841</v>
       </c>
       <c r="L7">
-        <v>6.028701696871934</v>
+        <v>9.486743456370316</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.80913611763817</v>
+        <v>23.63840297489536</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.332189909029221</v>
+        <v>10.27593214522523</v>
       </c>
       <c r="D8">
-        <v>4.754146442717224</v>
+        <v>5.449635108047908</v>
       </c>
       <c r="E8">
-        <v>10.3423050694157</v>
+        <v>12.77558371069992</v>
       </c>
       <c r="F8">
-        <v>17.05030684738433</v>
+        <v>26.06112632696432</v>
       </c>
       <c r="G8">
-        <v>2.080873868697103</v>
+        <v>3.647799074951892</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.95873754565506</v>
+        <v>24.35134512115806</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.17010867823522</v>
+        <v>17.05123549048621</v>
       </c>
       <c r="L8">
-        <v>6.195135870810925</v>
+        <v>9.480594147224148</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.62820217337709</v>
+        <v>23.43603239035727</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.5106262001081</v>
+        <v>10.54121052736549</v>
       </c>
       <c r="D9">
-        <v>5.080753624940497</v>
+        <v>5.545782637727459</v>
       </c>
       <c r="E9">
-        <v>11.45693601924094</v>
+        <v>12.94567476255357</v>
       </c>
       <c r="F9">
-        <v>17.75746030118146</v>
+        <v>25.79223485741128</v>
       </c>
       <c r="G9">
-        <v>2.065842963741365</v>
+        <v>3.642465487478772</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.2419577143036</v>
+        <v>24.09040155913338</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.8808075641089</v>
+        <v>18.68781356167338</v>
       </c>
       <c r="L9">
-        <v>6.540329081834276</v>
+        <v>9.481653002284448</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.48409900327221</v>
+        <v>23.09671273539923</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.3191361925191</v>
+        <v>10.73986468803338</v>
       </c>
       <c r="D10">
-        <v>5.310196045461435</v>
+        <v>5.615440837173555</v>
       </c>
       <c r="E10">
-        <v>12.24452614729653</v>
+        <v>13.08176977733659</v>
       </c>
       <c r="F10">
-        <v>18.43766534302574</v>
+        <v>25.64207249784465</v>
       </c>
       <c r="G10">
-        <v>2.055222029549337</v>
+        <v>3.638894802819127</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.58237035830325</v>
+        <v>23.93479219913745</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.3354240223089</v>
+        <v>19.80130492715203</v>
       </c>
       <c r="L10">
-        <v>6.804184666182116</v>
+        <v>9.490396771658782</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.53176788786896</v>
+        <v>22.88291265035118</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.67392225513983</v>
+        <v>10.83072739080565</v>
       </c>
       <c r="D11">
-        <v>5.412058019054858</v>
+        <v>5.646853893874572</v>
       </c>
       <c r="E11">
-        <v>12.59510233680013</v>
+        <v>13.14591982789114</v>
       </c>
       <c r="F11">
-        <v>18.78356299799308</v>
+        <v>25.58422562437497</v>
       </c>
       <c r="G11">
-        <v>2.050466817989344</v>
+        <v>3.637345127735014</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.76862094826159</v>
+        <v>23.87194329777304</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.39431207400855</v>
+        <v>20.28696008186623</v>
       </c>
       <c r="L11">
-        <v>6.926219513390025</v>
+        <v>9.496094459373197</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.5920687040671</v>
+        <v>22.79345193137877</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.80637226049964</v>
+        <v>10.8651785581617</v>
       </c>
       <c r="D12">
-        <v>5.45025395471712</v>
+        <v>5.658704375561292</v>
       </c>
       <c r="E12">
-        <v>12.72669752350513</v>
+        <v>13.17051773924924</v>
       </c>
       <c r="F12">
-        <v>18.91987601061787</v>
+        <v>25.56383860224251</v>
       </c>
       <c r="G12">
-        <v>2.04867575383308</v>
+        <v>3.636768978001995</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.84385284530488</v>
+        <v>23.84929383013068</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>31.78709139182379</v>
+        <v>20.46775473381323</v>
       </c>
       <c r="L12">
-        <v>6.972704028573045</v>
+        <v>9.498498240590299</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.62086965905994</v>
+        <v>22.7607049689563</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.77793158440684</v>
+        <v>10.85775738731724</v>
       </c>
       <c r="D13">
-        <v>5.442044757818358</v>
+        <v>5.656154247982275</v>
       </c>
       <c r="E13">
-        <v>12.6984084048852</v>
+        <v>13.16520681036447</v>
       </c>
       <c r="F13">
-        <v>18.89028043736015</v>
+        <v>25.56816157099283</v>
       </c>
       <c r="G13">
-        <v>2.049061085735014</v>
+        <v>3.636892588104369</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.82743836384675</v>
+        <v>23.85412051620693</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>31.70286224942879</v>
+        <v>20.42895737777012</v>
       </c>
       <c r="L13">
-        <v>6.962680847317864</v>
+        <v>9.497969614122498</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.61439516433689</v>
+        <v>22.76770722479863</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.68485718618913</v>
+        <v>10.83356099560579</v>
       </c>
       <c r="D14">
-        <v>5.415208055149711</v>
+        <v>5.647829772189322</v>
       </c>
       <c r="E14">
-        <v>12.60595224689521</v>
+        <v>13.14793748236568</v>
       </c>
       <c r="F14">
-        <v>18.79467034285286</v>
+        <v>25.58251786535035</v>
       </c>
       <c r="G14">
-        <v>2.050319281114198</v>
+        <v>3.637297513852168</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.77471506229493</v>
+        <v>23.87005681575759</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31.42678995943162</v>
+        <v>20.30189711726657</v>
       </c>
       <c r="L14">
-        <v>6.93003843760579</v>
+        <v>9.496287293102055</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.59431631404298</v>
+        <v>22.79073512549377</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.62759840800334</v>
+        <v>10.81874484937641</v>
       </c>
       <c r="D15">
-        <v>5.398720296055178</v>
+        <v>5.642724774593734</v>
       </c>
       <c r="E15">
-        <v>12.54916780113325</v>
+        <v>13.13739883321071</v>
       </c>
       <c r="F15">
-        <v>18.73680253179204</v>
+        <v>25.59150964075156</v>
       </c>
       <c r="G15">
-        <v>2.051091174708337</v>
+        <v>3.637546931588616</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.74303821248708</v>
+        <v>23.87996827855287</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.25662319921871</v>
+        <v>20.22366072009539</v>
       </c>
       <c r="L15">
-        <v>6.91007910672323</v>
+        <v>9.495288846955946</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.58280632060905</v>
+        <v>22.80498777729951</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.29568548986634</v>
+        <v>10.73393417103736</v>
       </c>
       <c r="D16">
-        <v>5.303487151748051</v>
+        <v>5.613381923491771</v>
       </c>
       <c r="E16">
-        <v>12.22145524851226</v>
+        <v>13.07762110114505</v>
       </c>
       <c r="F16">
-        <v>18.41580176578241</v>
+        <v>25.64606465861418</v>
       </c>
       <c r="G16">
-        <v>2.055534217062805</v>
+        <v>3.638997575063012</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.57084674801207</v>
+        <v>23.9390599966332</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.2650701388239</v>
+        <v>19.76913630428589</v>
       </c>
       <c r="L16">
-        <v>6.79624832614006</v>
+        <v>9.490058932044564</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.52863996993162</v>
+        <v>22.88891676047352</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.08871029754841</v>
+        <v>10.68201236207425</v>
       </c>
       <c r="D17">
-        <v>5.244408981850126</v>
+        <v>5.595306758375689</v>
       </c>
       <c r="E17">
-        <v>12.01839808077525</v>
+        <v>13.0415115630688</v>
       </c>
       <c r="F17">
-        <v>18.22828695905063</v>
+        <v>25.68222217443402</v>
       </c>
       <c r="G17">
-        <v>2.058278502480974</v>
+        <v>3.639906577131351</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.47339429875791</v>
+        <v>23.97735020441917</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>29.64206916526476</v>
+        <v>19.48486922788212</v>
       </c>
       <c r="L17">
-        <v>6.726918159710239</v>
+        <v>9.487290337256152</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.50560186032468</v>
+        <v>22.94240775564631</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.96843990258662</v>
+        <v>10.65219644049244</v>
       </c>
       <c r="D18">
-        <v>5.210193018518703</v>
+        <v>5.5848848576349</v>
       </c>
       <c r="E18">
-        <v>11.9008819476812</v>
+        <v>13.02095414552226</v>
       </c>
       <c r="F18">
-        <v>18.12386273158639</v>
+        <v>25.70400303616219</v>
       </c>
       <c r="G18">
-        <v>2.059864211500152</v>
+        <v>3.640436440533521</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.42028735187589</v>
+        <v>24.00012043772315</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.27829506890831</v>
+        <v>19.31940667633251</v>
       </c>
       <c r="L18">
-        <v>6.687230811904037</v>
+        <v>9.485859898903962</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.49596204104126</v>
+        <v>22.97390782869899</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.92750936292392</v>
+        <v>10.64211039303089</v>
       </c>
       <c r="D19">
-        <v>5.198568120395231</v>
+        <v>5.581351960776801</v>
       </c>
       <c r="E19">
-        <v>11.86097073024369</v>
+        <v>13.01403063030792</v>
       </c>
       <c r="F19">
-        <v>18.08909248911501</v>
+        <v>25.71154623633429</v>
       </c>
       <c r="G19">
-        <v>2.060402392840487</v>
+        <v>3.640617052192786</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.40280601178337</v>
+        <v>24.0079580357709</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.15419001473757</v>
+        <v>19.2630509622571</v>
       </c>
       <c r="L19">
-        <v>6.673826449124897</v>
+        <v>9.48540343054718</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.49330543095536</v>
+        <v>22.98469892836339</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.11087006941214</v>
+        <v>10.68753474678833</v>
       </c>
       <c r="D20">
-        <v>5.250722478436904</v>
+        <v>5.597233573862375</v>
       </c>
       <c r="E20">
-        <v>12.04008913257065</v>
+        <v>13.04533367809081</v>
       </c>
       <c r="F20">
-        <v>18.24789261808572</v>
+        <v>25.67827120123092</v>
       </c>
       <c r="G20">
-        <v>2.057985625709442</v>
+        <v>3.639809085190403</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.48346204143135</v>
+        <v>23.97319680179981</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.7089510256258</v>
+        <v>19.51533361078189</v>
       </c>
       <c r="L20">
-        <v>6.734278984595699</v>
+        <v>9.487568302007055</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.50767750828182</v>
+        <v>22.93663757537716</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.71224711237464</v>
+        <v>10.84066710204814</v>
       </c>
       <c r="D21">
-        <v>5.423100985198785</v>
+        <v>5.650276135832858</v>
       </c>
       <c r="E21">
-        <v>12.63314068654074</v>
+        <v>13.1530017398259</v>
       </c>
       <c r="F21">
-        <v>18.82260815090363</v>
+        <v>25.57825975973632</v>
       </c>
       <c r="G21">
-        <v>2.049949468480409</v>
+        <v>3.63717828797233</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.79007213874609</v>
+        <v>23.86534465950882</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.50810073127151</v>
+        <v>20.33930306304229</v>
       </c>
       <c r="L21">
-        <v>6.939619015452653</v>
+        <v>9.496774760082655</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.60004885179896</v>
+        <v>22.78394053990669</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.09420489406702</v>
+        <v>10.94098854921582</v>
       </c>
       <c r="D22">
-        <v>5.533557997219333</v>
+        <v>5.684677968975139</v>
       </c>
       <c r="E22">
-        <v>13.0139584441138</v>
+        <v>13.22514281622111</v>
       </c>
       <c r="F22">
-        <v>19.22930495478118</v>
+        <v>25.52175244926168</v>
       </c>
       <c r="G22">
-        <v>2.044752809551649</v>
+        <v>3.635521127353149</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.01794493810579</v>
+        <v>23.80156422011395</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>32.6362148158725</v>
+        <v>20.85963324321582</v>
       </c>
       <c r="L22">
-        <v>7.075404688900604</v>
+        <v>9.504226044609359</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.69536970210689</v>
+        <v>22.69073399575529</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.89136629061858</v>
+        <v>10.88743212364018</v>
       </c>
       <c r="D23">
-        <v>5.474810856384232</v>
+        <v>5.666343051450951</v>
       </c>
       <c r="E23">
-        <v>12.81134165339167</v>
+        <v>13.18648301397253</v>
       </c>
       <c r="F23">
-        <v>19.00937618518305</v>
+        <v>25.55109675262954</v>
       </c>
       <c r="G23">
-        <v>2.04752176450172</v>
+        <v>3.636399910538654</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.89375289174479</v>
+        <v>23.83498857459925</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.03845070466487</v>
+        <v>20.58361910642594</v>
       </c>
       <c r="L23">
-        <v>7.002792636978857</v>
+        <v>9.500118338045803</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.64116673584235</v>
+        <v>22.73987426562353</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.10085561362235</v>
+        <v>10.68503796674678</v>
       </c>
       <c r="D24">
-        <v>5.247868927635636</v>
+        <v>5.596362554363328</v>
       </c>
       <c r="E24">
-        <v>12.03028502047804</v>
+        <v>13.04360506809919</v>
       </c>
       <c r="F24">
-        <v>18.23901837667518</v>
+        <v>25.68005434275077</v>
       </c>
       <c r="G24">
-        <v>2.058118010333404</v>
+        <v>3.639853138658728</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.47890133504882</v>
+        <v>23.97507219868833</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.6787311948937</v>
+        <v>19.50156698904154</v>
       </c>
       <c r="L24">
-        <v>6.730950620265294</v>
+        <v>9.487442131737184</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.50672791042128</v>
+        <v>22.93924394637544</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.20162996751792</v>
+        <v>10.46867584587533</v>
       </c>
       <c r="D25">
-        <v>4.994153907681126</v>
+        <v>5.519922915687197</v>
       </c>
       <c r="E25">
-        <v>11.16052374945572</v>
+        <v>12.89764730481035</v>
       </c>
       <c r="F25">
-        <v>17.53858112979334</v>
+        <v>25.85671527449679</v>
       </c>
       <c r="G25">
-        <v>2.06983023855465</v>
+        <v>3.643846991880284</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.14306390776727</v>
+        <v>24.15468783411323</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>26.92504448735534</v>
+        <v>18.26007944654757</v>
       </c>
       <c r="L25">
-        <v>6.445062358120568</v>
+        <v>9.479964790201246</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.49793393255803</v>
+        <v>23.18230528162854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_224/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.31203174127577</v>
+        <v>9.501321776900577</v>
       </c>
       <c r="D2">
-        <v>5.463009773692793</v>
+        <v>4.800385303192209</v>
       </c>
       <c r="E2">
-        <v>12.79773567022786</v>
+        <v>10.49948909055963</v>
       </c>
       <c r="F2">
-        <v>26.01856027458608</v>
+        <v>17.13019615481596</v>
       </c>
       <c r="G2">
-        <v>3.647021604413712</v>
+        <v>2.078743126582051</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.3111534030711</v>
+        <v>14.98364846159932</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.28693944694734</v>
+        <v>24.71461777750146</v>
       </c>
       <c r="L2">
-        <v>9.479816495870692</v>
+        <v>6.24155246615106</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.38507774341043</v>
+        <v>13.59251009378231</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.2080312633025</v>
+        <v>9.004393186906558</v>
       </c>
       <c r="D3">
-        <v>5.424143358963288</v>
+        <v>4.665191827988508</v>
       </c>
       <c r="E3">
-        <v>12.73499116086338</v>
+        <v>10.04069296458253</v>
       </c>
       <c r="F3">
-        <v>26.14777802520361</v>
+        <v>16.91682665479917</v>
       </c>
       <c r="G3">
-        <v>3.649320326077146</v>
+        <v>2.084984791957184</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.43213820781051</v>
+        <v>14.92568962442186</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.59375816764182</v>
+        <v>23.10090478654381</v>
       </c>
       <c r="L3">
-        <v>9.483067731132607</v>
+        <v>6.108395824242994</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.53721094122345</v>
+        <v>13.71133173120277</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.14540452348679</v>
+        <v>8.688988096864376</v>
       </c>
       <c r="D4">
-        <v>5.400166542550513</v>
+        <v>4.580459441463738</v>
       </c>
       <c r="E4">
-        <v>12.69899386938139</v>
+        <v>9.754556338509349</v>
       </c>
       <c r="F4">
-        <v>26.23665486265639</v>
+        <v>16.81554925755148</v>
       </c>
       <c r="G4">
-        <v>3.650804816539363</v>
+        <v>2.088922837154948</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.51374199262227</v>
+        <v>14.91307330284002</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.15282596942402</v>
+        <v>22.05258561212074</v>
       </c>
       <c r="L4">
-        <v>9.486719456199854</v>
+        <v>6.029131219571117</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.6378329183127</v>
+        <v>13.80854750846746</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.12021769669625</v>
+        <v>8.558007081792427</v>
       </c>
       <c r="D5">
-        <v>5.390372603539433</v>
+        <v>4.545529003521089</v>
       </c>
       <c r="E5">
-        <v>12.684971704111</v>
+        <v>9.636997167359908</v>
       </c>
       <c r="F5">
-        <v>26.27525596571101</v>
+        <v>16.78148899792275</v>
       </c>
       <c r="G5">
-        <v>3.651428191453516</v>
+        <v>2.090555059073962</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.5488283941319</v>
+        <v>14.91343747424959</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.9695155907496</v>
+        <v>21.61088104601692</v>
       </c>
       <c r="L5">
-        <v>9.488624130701993</v>
+        <v>5.997479606315199</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.68064379950988</v>
+        <v>13.85386596681977</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.11605633310113</v>
+        <v>8.536114273651735</v>
       </c>
       <c r="D6">
-        <v>5.388745076556969</v>
+        <v>4.539705585954472</v>
       </c>
       <c r="E6">
-        <v>12.68268272599779</v>
+        <v>9.617423861713762</v>
       </c>
       <c r="F6">
-        <v>26.28180913598645</v>
+        <v>16.77626042991854</v>
       </c>
       <c r="G6">
-        <v>3.651532817452881</v>
+        <v>2.090827770043536</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.55476488525705</v>
+        <v>14.91382233957589</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.93886509684958</v>
+        <v>21.53665904229595</v>
       </c>
       <c r="L6">
-        <v>9.48896556564323</v>
+        <v>5.992263731733923</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.68786143178405</v>
+        <v>13.86172407128584</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.14506346015751</v>
+        <v>8.687231364620265</v>
       </c>
       <c r="D7">
-        <v>5.400034545203505</v>
+        <v>4.579989937784545</v>
       </c>
       <c r="E7">
-        <v>12.6988021274922</v>
+        <v>9.752974540475764</v>
       </c>
       <c r="F7">
-        <v>26.2371658217947</v>
+        <v>16.81506108725666</v>
       </c>
       <c r="G7">
-        <v>3.650813148877621</v>
+        <v>2.088944737658823</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.51420777245874</v>
+        <v>14.91305628847491</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.15036814965841</v>
+        <v>22.04668741962858</v>
       </c>
       <c r="L7">
-        <v>9.486743456370316</v>
+        <v>6.028701696871909</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.63840297489536</v>
+        <v>13.80913611763818</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.27593214522523</v>
+        <v>9.332189909029251</v>
       </c>
       <c r="D8">
-        <v>5.449635108047908</v>
+        <v>4.754146442717278</v>
       </c>
       <c r="E8">
-        <v>12.77558371069992</v>
+        <v>10.34230506941571</v>
       </c>
       <c r="F8">
-        <v>26.06112632696432</v>
+        <v>17.0503068473843</v>
       </c>
       <c r="G8">
-        <v>3.647799074951892</v>
+        <v>2.080873868697237</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.35134512115806</v>
+        <v>14.95873754565503</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.05123549048621</v>
+        <v>24.17010867823521</v>
       </c>
       <c r="L8">
-        <v>9.480594147224148</v>
+        <v>6.195135870810947</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.43603239035727</v>
+        <v>13.62820217337705</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.54121052736549</v>
+        <v>10.51062620010814</v>
       </c>
       <c r="D9">
-        <v>5.545782637727459</v>
+        <v>5.080753624940486</v>
       </c>
       <c r="E9">
-        <v>12.94567476255357</v>
+        <v>11.45693601924093</v>
       </c>
       <c r="F9">
-        <v>25.79223485741128</v>
+        <v>17.75746030118153</v>
       </c>
       <c r="G9">
-        <v>3.642465487478772</v>
+        <v>2.065842963741499</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.09040155913338</v>
+        <v>15.24195771430372</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.68781356167338</v>
+        <v>27.88080756410888</v>
       </c>
       <c r="L9">
-        <v>9.481653002284448</v>
+        <v>6.540329081834228</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.09671273539923</v>
+        <v>13.48409900327231</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.73986468803338</v>
+        <v>11.31913619251904</v>
       </c>
       <c r="D10">
-        <v>5.615440837173555</v>
+        <v>5.310196045461433</v>
       </c>
       <c r="E10">
-        <v>13.08176977733659</v>
+        <v>12.24452614729654</v>
       </c>
       <c r="F10">
-        <v>25.64207249784465</v>
+        <v>18.43766534302572</v>
       </c>
       <c r="G10">
-        <v>3.638894802819127</v>
+        <v>2.055222029549203</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.93479219913745</v>
+        <v>15.5823703583032</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.80130492715203</v>
+        <v>30.33542402230889</v>
       </c>
       <c r="L10">
-        <v>9.490396771658782</v>
+        <v>6.804184666182208</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.88291265035118</v>
+        <v>13.53176788786895</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.83072739080565</v>
+        <v>11.67392225513979</v>
       </c>
       <c r="D11">
-        <v>5.646853893874572</v>
+        <v>5.412058019054858</v>
       </c>
       <c r="E11">
-        <v>13.14591982789114</v>
+        <v>12.59510233680014</v>
       </c>
       <c r="F11">
-        <v>25.58422562437497</v>
+        <v>18.78356299799307</v>
       </c>
       <c r="G11">
-        <v>3.637345127735014</v>
+        <v>2.050466817989345</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.87194329777304</v>
+        <v>15.76862094826159</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.28696008186623</v>
+        <v>31.39431207400854</v>
       </c>
       <c r="L11">
-        <v>9.496094459373197</v>
+        <v>6.926219513390051</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.79345193137877</v>
+        <v>13.59206870406709</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.8651785581617</v>
+        <v>11.80637226049964</v>
       </c>
       <c r="D12">
-        <v>5.658704375561292</v>
+        <v>5.450253954717033</v>
       </c>
       <c r="E12">
-        <v>13.17051773924924</v>
+        <v>12.72669752350512</v>
       </c>
       <c r="F12">
-        <v>25.56383860224251</v>
+        <v>18.91987601061782</v>
       </c>
       <c r="G12">
-        <v>3.636768978001995</v>
+        <v>2.04867575383335</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.84929383013068</v>
+        <v>15.8438528453048</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.46775473381323</v>
+        <v>31.78709139182383</v>
       </c>
       <c r="L12">
-        <v>9.498498240590299</v>
+        <v>6.972704028573038</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.7607049689563</v>
+        <v>13.62086965905985</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.85775738731724</v>
+        <v>11.77793158440683</v>
       </c>
       <c r="D13">
-        <v>5.656154247982275</v>
+        <v>5.442044757818319</v>
       </c>
       <c r="E13">
-        <v>13.16520681036447</v>
+        <v>12.69840840488517</v>
       </c>
       <c r="F13">
-        <v>25.56816157099283</v>
+        <v>18.89028043736006</v>
       </c>
       <c r="G13">
-        <v>3.636892588104369</v>
+        <v>2.049061085734746</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.85412051620693</v>
+        <v>15.82743836384665</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.42895737777012</v>
+        <v>31.70286224942886</v>
       </c>
       <c r="L13">
-        <v>9.497969614122498</v>
+        <v>6.962680847317827</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.76770722479863</v>
+        <v>13.61439516433676</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.83356099560579</v>
+        <v>11.68485718618912</v>
       </c>
       <c r="D14">
-        <v>5.647829772189322</v>
+        <v>5.415208055149776</v>
       </c>
       <c r="E14">
-        <v>13.14793748236568</v>
+        <v>12.60595224689524</v>
       </c>
       <c r="F14">
-        <v>25.58251786535035</v>
+        <v>18.79467034285275</v>
       </c>
       <c r="G14">
-        <v>3.637297513852168</v>
+        <v>2.050319281114198</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.87005681575759</v>
+        <v>15.77471506229482</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.30189711726657</v>
+        <v>31.42678995943164</v>
       </c>
       <c r="L14">
-        <v>9.496287293102055</v>
+        <v>6.930038437605865</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.79073512549377</v>
+        <v>13.59431631404286</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.81874484937641</v>
+        <v>11.62759840800333</v>
       </c>
       <c r="D15">
-        <v>5.642724774593734</v>
+        <v>5.398720296055177</v>
       </c>
       <c r="E15">
-        <v>13.13739883321071</v>
+        <v>12.54916780113324</v>
       </c>
       <c r="F15">
-        <v>25.59150964075156</v>
+        <v>18.73680253179208</v>
       </c>
       <c r="G15">
-        <v>3.637546931588616</v>
+        <v>2.051091174708336</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.87996827855287</v>
+        <v>15.7430382124871</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.22366072009539</v>
+        <v>31.25662319921873</v>
       </c>
       <c r="L15">
-        <v>9.495288846955946</v>
+        <v>6.910079106723238</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.80498777729951</v>
+        <v>13.58280632060906</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.73393417103736</v>
+        <v>11.29568548986633</v>
       </c>
       <c r="D16">
-        <v>5.613381923491771</v>
+        <v>5.303487151748064</v>
       </c>
       <c r="E16">
-        <v>13.07762110114505</v>
+        <v>12.22145524851229</v>
       </c>
       <c r="F16">
-        <v>25.64606465861418</v>
+        <v>18.41580176578219</v>
       </c>
       <c r="G16">
-        <v>3.638997575063012</v>
+        <v>2.055534217062537</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.9390599966332</v>
+        <v>15.57084674801181</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.76913630428589</v>
+        <v>30.26507013882397</v>
       </c>
       <c r="L16">
-        <v>9.490058932044564</v>
+        <v>6.796248326140077</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.88891676047352</v>
+        <v>13.52863996993137</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.68201236207425</v>
+        <v>11.08871029754837</v>
       </c>
       <c r="D17">
-        <v>5.595306758375689</v>
+        <v>5.244408981850085</v>
       </c>
       <c r="E17">
-        <v>13.0415115630688</v>
+        <v>12.01839808077525</v>
       </c>
       <c r="F17">
-        <v>25.68222217443402</v>
+        <v>18.22828695905053</v>
       </c>
       <c r="G17">
-        <v>3.639906577131351</v>
+        <v>2.058278502480976</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.97735020441917</v>
+        <v>15.47339429875777</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.48486922788212</v>
+        <v>29.64206916526478</v>
       </c>
       <c r="L17">
-        <v>9.487290337256152</v>
+        <v>6.726918159710261</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.94240775564631</v>
+        <v>13.50560186032455</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.65219644049244</v>
+        <v>10.9684399025866</v>
       </c>
       <c r="D18">
-        <v>5.5848848576349</v>
+        <v>5.210193018518757</v>
       </c>
       <c r="E18">
-        <v>13.02095414552226</v>
+        <v>11.90088194768121</v>
       </c>
       <c r="F18">
-        <v>25.70400303616219</v>
+        <v>18.12386273158638</v>
       </c>
       <c r="G18">
-        <v>3.640436440533521</v>
+        <v>2.05986421150042</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.00012043772315</v>
+        <v>15.42028735187587</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.31940667633251</v>
+        <v>29.27829506890833</v>
       </c>
       <c r="L18">
-        <v>9.485859898903962</v>
+        <v>6.687230811904056</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.97390782869899</v>
+        <v>13.49596204104124</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.64211039303089</v>
+        <v>10.9275093629239</v>
       </c>
       <c r="D19">
-        <v>5.581351960776801</v>
+        <v>5.198568120395273</v>
       </c>
       <c r="E19">
-        <v>13.01403063030792</v>
+        <v>11.8609707302437</v>
       </c>
       <c r="F19">
-        <v>25.71154623633429</v>
+        <v>18.08909248911505</v>
       </c>
       <c r="G19">
-        <v>3.640617052192786</v>
+        <v>2.060402392840622</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.0079580357709</v>
+        <v>15.40280601178342</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.2630509622571</v>
+        <v>29.15419001473752</v>
       </c>
       <c r="L19">
-        <v>9.48540343054718</v>
+        <v>6.673826449124914</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.98469892836339</v>
+        <v>13.49330543095542</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.68753474678833</v>
+        <v>11.11087006941216</v>
       </c>
       <c r="D20">
-        <v>5.597233573862375</v>
+        <v>5.250722478436778</v>
       </c>
       <c r="E20">
-        <v>13.04533367809081</v>
+        <v>12.04008913257065</v>
       </c>
       <c r="F20">
-        <v>25.67827120123092</v>
+        <v>18.24789261808565</v>
       </c>
       <c r="G20">
-        <v>3.639809085190403</v>
+        <v>2.057985625709442</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.97319680179981</v>
+        <v>15.48346204143131</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>19.51533361078189</v>
+        <v>29.70895102562584</v>
       </c>
       <c r="L20">
-        <v>9.487568302007055</v>
+        <v>6.734278984595665</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.93663757537716</v>
+        <v>13.50767750828173</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.84066710204814</v>
+        <v>11.71224711237465</v>
       </c>
       <c r="D21">
-        <v>5.650276135832858</v>
+        <v>5.423100985198611</v>
       </c>
       <c r="E21">
-        <v>13.1530017398259</v>
+        <v>12.63314068654075</v>
       </c>
       <c r="F21">
-        <v>25.57825975973632</v>
+        <v>18.8226081509036</v>
       </c>
       <c r="G21">
-        <v>3.63717828797233</v>
+        <v>2.049949468480409</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.86534465950882</v>
+        <v>15.79007213874601</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.33930306304229</v>
+        <v>31.50810073127156</v>
       </c>
       <c r="L21">
-        <v>9.496774760082655</v>
+        <v>6.93961901545266</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.78394053990669</v>
+        <v>13.60004885179887</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.94098854921582</v>
+        <v>12.09420489406705</v>
       </c>
       <c r="D22">
-        <v>5.684677968975139</v>
+        <v>5.533557997219385</v>
       </c>
       <c r="E22">
-        <v>13.22514281622111</v>
+        <v>13.01395844411377</v>
       </c>
       <c r="F22">
-        <v>25.52175244926168</v>
+        <v>19.22930495478115</v>
       </c>
       <c r="G22">
-        <v>3.635521127353149</v>
+        <v>2.044752809551382</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.80156422011395</v>
+        <v>16.01794493810579</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.85963324321582</v>
+        <v>32.63621481587248</v>
       </c>
       <c r="L22">
-        <v>9.504226044609359</v>
+        <v>7.075404688900616</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.69073399575529</v>
+        <v>13.69536970210689</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.88743212364018</v>
+        <v>11.89136629061856</v>
       </c>
       <c r="D23">
-        <v>5.666343051450951</v>
+        <v>5.474810856384007</v>
       </c>
       <c r="E23">
-        <v>13.18648301397253</v>
+        <v>12.8113416533917</v>
       </c>
       <c r="F23">
-        <v>25.55109675262954</v>
+        <v>19.00937618518301</v>
       </c>
       <c r="G23">
-        <v>3.636399910538654</v>
+        <v>2.047521764501988</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.83498857459925</v>
+        <v>15.8937528917447</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.58361910642594</v>
+        <v>32.03845070466489</v>
       </c>
       <c r="L23">
-        <v>9.500118338045803</v>
+        <v>7.002792636978898</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.73987426562353</v>
+        <v>13.64116673584226</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.68503796674678</v>
+        <v>11.10085561362229</v>
       </c>
       <c r="D24">
-        <v>5.596362554363328</v>
+        <v>5.24786892763572</v>
       </c>
       <c r="E24">
-        <v>13.04360506809919</v>
+        <v>12.03028502047803</v>
       </c>
       <c r="F24">
-        <v>25.68005434275077</v>
+        <v>18.23901837667508</v>
       </c>
       <c r="G24">
-        <v>3.639853138658728</v>
+        <v>2.058118010333406</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.97507219868833</v>
+        <v>15.47890133504868</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>19.50156698904154</v>
+        <v>29.6787311948938</v>
       </c>
       <c r="L24">
-        <v>9.487442131737184</v>
+        <v>6.730950620265302</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.93924394637544</v>
+        <v>13.5067279104211</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.46867584587533</v>
+        <v>10.20162996751793</v>
       </c>
       <c r="D25">
-        <v>5.519922915687197</v>
+        <v>4.99415390768099</v>
       </c>
       <c r="E25">
-        <v>12.89764730481035</v>
+        <v>11.16052374945576</v>
       </c>
       <c r="F25">
-        <v>25.85671527449679</v>
+        <v>17.53858112979344</v>
       </c>
       <c r="G25">
-        <v>3.643846991880284</v>
+        <v>2.06983023855505</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.15468783411323</v>
+        <v>15.14306390776738</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.26007944654757</v>
+        <v>26.92504448735535</v>
       </c>
       <c r="L25">
-        <v>9.479964790201246</v>
+        <v>6.445062358120588</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.18230528162854</v>
+        <v>13.4979339325581</v>
       </c>
     </row>
   </sheetData>
